--- a/bak/bz/bz.xlsx
+++ b/bak/bz/bz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tryhe\Desktop\zy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tryhe\Desktop\1\info\bak\bz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D39EC-43F6-4C50-B639-9DDFC007E882}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7070101-B9C3-498A-8836-946FFA1E1604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建设工程文件移交清单" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="418">
   <si>
     <t>文件名称及类别</t>
   </si>
@@ -1277,10 +1277,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>38fb92bf-5628-408e-93d1-414b8839jj08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可行性研究报告及审批意见（或项目建议书批复文件及项目建议书）</t>
   </si>
   <si>
@@ -1289,6 +1285,18 @@
   </si>
   <si>
     <t>工程信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目Key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 单体Key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 项目Key</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1744,11 +1752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1843,7 @@
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4883,7 +4891,7 @@
     </row>
     <row r="250" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5025,7 +5033,7 @@
         <v>371</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -5170,13 +5178,24 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/bak/bz/bz.xlsx
+++ b/bak/bz/bz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tryhe\Desktop\1\info\bak\bz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJJ\Desktop\1\info\bak\bz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7070101-B9C3-498A-8836-946FFA1E1604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B20260-6B72-4A86-8AE1-8703C6C2DE28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="3780" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建设工程文件移交清单" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="419">
   <si>
     <t>文件名称及类别</t>
   </si>
@@ -1292,12 +1292,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 单体Key</t>
+    <t>d1bac401-4293-428e-baf5-177cb795da66</t>
+  </si>
+  <si>
+    <t>总登记号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 项目Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>ffc7d26d-0ff9-4777-8e26-b5d26eaeec07</t>
   </si>
 </sst>
 </file>
@@ -1752,24 +1754,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1801,7 +1803,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +1813,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1823,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1831,7 +1833,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1843,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>412</v>
       </c>
@@ -1851,7 +1853,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +1863,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1873,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +1893,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1901,7 +1903,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1913,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1931,7 +1933,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1941,7 +1943,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1951,7 +1953,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1963,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1973,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1981,7 +1983,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +1993,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +2003,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2013,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -2021,7 +2023,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2033,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -2041,7 +2043,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -2051,7 +2053,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2063,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -2071,7 +2073,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -2081,7 +2083,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -2101,7 +2103,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>36</v>
       </c>
@@ -2111,7 +2113,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -2121,7 +2123,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2133,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -2141,7 +2143,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2153,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
@@ -2161,7 +2163,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
@@ -2171,7 +2173,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2183,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2193,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2203,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2213,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>47</v>
       </c>
@@ -2221,7 +2223,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
@@ -2231,7 +2233,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>49</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>60</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>62</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>65</v>
       </c>
@@ -2327,7 +2329,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>66</v>
       </c>
@@ -2337,7 +2339,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>67</v>
       </c>
@@ -2347,7 +2349,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>69</v>
       </c>
@@ -2367,7 +2369,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>70</v>
       </c>
@@ -2377,7 +2379,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>71</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>72</v>
       </c>
@@ -2397,7 +2399,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
         <v>73</v>
       </c>
@@ -2407,7 +2409,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>74</v>
       </c>
@@ -2417,7 +2419,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
         <v>75</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>76</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>77</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>80</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>84</v>
       </c>
@@ -2487,7 +2489,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>85</v>
       </c>
@@ -2497,7 +2499,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>87</v>
       </c>
@@ -2517,7 +2519,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>88</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>89</v>
       </c>
@@ -2537,7 +2539,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>90</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>91</v>
       </c>
@@ -2557,7 +2559,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>92</v>
       </c>
@@ -2567,7 +2569,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>93</v>
       </c>
@@ -2577,7 +2579,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
@@ -2587,7 +2589,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>95</v>
       </c>
@@ -2599,7 +2601,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>96</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>97</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>100</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>104</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="s">
         <v>111</v>
       </c>
@@ -2703,7 +2705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="s">
         <v>115</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>119</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="s">
         <v>122</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>126</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>129</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>133</v>
       </c>
@@ -2803,7 +2805,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="s">
         <v>134</v>
       </c>
@@ -2813,7 +2815,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
         <v>135</v>
       </c>
@@ -2823,7 +2825,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="s">
         <v>136</v>
       </c>
@@ -2833,7 +2835,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="s">
         <v>137</v>
       </c>
@@ -2843,7 +2845,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="s">
         <v>138</v>
       </c>
@@ -2853,7 +2855,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
         <v>139</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>140</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="s">
         <v>142</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>144</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="s">
         <v>146</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>147</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>150</v>
       </c>
@@ -2967,7 +2969,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="E101" s="6"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="11" t="s">
         <v>152</v>
       </c>
@@ -2987,7 +2989,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="11" t="s">
         <v>153</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11" t="s">
         <v>154</v>
       </c>
@@ -3007,7 +3009,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>155</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="11" t="s">
         <v>156</v>
       </c>
@@ -3027,7 +3029,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
         <v>157</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="E107" s="6"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>158</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>160</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="11" t="s">
         <v>163</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11" t="s">
         <v>166</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11" t="s">
         <v>169</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="11" t="s">
         <v>172</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11" t="s">
         <v>176</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11" t="s">
         <v>179</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11" t="s">
         <v>181</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
         <v>184</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11" t="s">
         <v>185</v>
       </c>
@@ -3215,7 +3217,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="11" t="s">
         <v>186</v>
       </c>
@@ -3225,7 +3227,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11" t="s">
         <v>187</v>
       </c>
@@ -3235,7 +3237,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11" t="s">
         <v>188</v>
       </c>
@@ -3245,7 +3247,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11" t="s">
         <v>189</v>
       </c>
@@ -3255,7 +3257,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="11" t="s">
         <v>190</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="11" t="s">
         <v>191</v>
       </c>
@@ -3275,7 +3277,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="11" t="s">
         <v>192</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="8" t="s">
         <v>193</v>
       </c>
@@ -3295,7 +3297,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11" t="s">
         <v>185</v>
       </c>
@@ -3305,7 +3307,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11" t="s">
         <v>194</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11" t="s">
         <v>195</v>
       </c>
@@ -3325,7 +3327,7 @@
       <c r="E129" s="6"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11" t="s">
         <v>196</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11" t="s">
         <v>197</v>
       </c>
@@ -3345,7 +3347,7 @@
       <c r="E131" s="6"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="11" t="s">
         <v>198</v>
       </c>
@@ -3355,7 +3357,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
         <v>199</v>
       </c>
@@ -3365,7 +3367,7 @@
       <c r="E133" s="6"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="11" t="s">
         <v>200</v>
       </c>
@@ -3375,7 +3377,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="11" t="s">
         <v>201</v>
       </c>
@@ -3385,7 +3387,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -3395,7 +3397,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="11" t="s">
         <v>203</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="E137" s="6"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A138" s="11" t="s">
         <v>204</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="E138" s="6"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="11" t="s">
         <v>205</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="E139" s="6"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8" t="s">
         <v>206</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="E140" s="6"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="11" t="s">
         <v>185</v>
       </c>
@@ -3445,7 +3447,7 @@
       <c r="E141" s="6"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="11" t="s">
         <v>207</v>
       </c>
@@ -3455,7 +3457,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="11" t="s">
         <v>208</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="11" t="s">
         <v>209</v>
       </c>
@@ -3475,7 +3477,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A145" s="11" t="s">
         <v>210</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="11" t="s">
         <v>211</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="11" t="s">
         <v>212</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="11" t="s">
         <v>213</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11" t="s">
         <v>214</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
         <v>215</v>
       </c>
@@ -3535,7 +3537,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11" t="s">
         <v>185</v>
       </c>
@@ -3545,7 +3547,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11" t="s">
         <v>216</v>
       </c>
@@ -3555,7 +3557,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11" t="s">
         <v>217</v>
       </c>
@@ -3565,7 +3567,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11" t="s">
         <v>218</v>
       </c>
@@ -3575,7 +3577,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11" t="s">
         <v>219</v>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="E155" s="6"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11" t="s">
         <v>220</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="11" t="s">
         <v>221</v>
       </c>
@@ -3605,7 +3607,7 @@
       <c r="E157" s="6"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11" t="s">
         <v>222</v>
       </c>
@@ -3615,7 +3617,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="11" t="s">
         <v>223</v>
       </c>
@@ -3625,7 +3627,7 @@
       <c r="E159" s="6"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8" t="s">
         <v>224</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11" t="s">
         <v>185</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="11" t="s">
         <v>216</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="11" t="s">
         <v>225</v>
       </c>
@@ -3665,7 +3667,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="11" t="s">
         <v>226</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="11" t="s">
         <v>227</v>
       </c>
@@ -3685,7 +3687,7 @@
       <c r="E165" s="6"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="11" t="s">
         <v>212</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="11" t="s">
         <v>228</v>
       </c>
@@ -3705,7 +3707,7 @@
       <c r="E167" s="6"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="11" t="s">
         <v>229</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8" t="s">
         <v>230</v>
       </c>
@@ -3725,7 +3727,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11" t="s">
         <v>231</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="11" t="s">
         <v>232</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11" t="s">
         <v>233</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="11" t="s">
         <v>234</v>
       </c>
@@ -3765,7 +3767,7 @@
       <c r="E173" s="6"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="11" t="s">
         <v>235</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11" t="s">
         <v>236</v>
       </c>
@@ -3785,7 +3787,7 @@
       <c r="E175" s="6"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="11" t="s">
         <v>237</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="11" t="s">
         <v>238</v>
       </c>
@@ -3805,7 +3807,7 @@
       <c r="E177" s="6"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11" t="s">
         <v>239</v>
       </c>
@@ -3815,7 +3817,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11" t="s">
         <v>240</v>
       </c>
@@ -3825,7 +3827,7 @@
       <c r="E179" s="6"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="11" t="s">
         <v>241</v>
       </c>
@@ -3835,7 +3837,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="11" t="s">
         <v>242</v>
       </c>
@@ -3845,7 +3847,7 @@
       <c r="E181" s="6"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="11" t="s">
         <v>243</v>
       </c>
@@ -3855,7 +3857,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="11" t="s">
         <v>244</v>
       </c>
@@ -3865,7 +3867,7 @@
       <c r="E183" s="6"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="11" t="s">
         <v>245</v>
       </c>
@@ -3875,7 +3877,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="11" t="s">
         <v>246</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="E185" s="6"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="11" t="s">
         <v>247</v>
       </c>
@@ -3895,7 +3897,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="11" t="s">
         <v>248</v>
       </c>
@@ -3905,7 +3907,7 @@
       <c r="E187" s="6"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="11" t="s">
         <v>249</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="11" t="s">
         <v>250</v>
       </c>
@@ -3925,7 +3927,7 @@
       <c r="E189" s="6"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="11" t="s">
         <v>251</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
         <v>252</v>
       </c>
@@ -3945,7 +3947,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="11" t="s">
         <v>253</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="11" t="s">
         <v>254</v>
       </c>
@@ -3965,7 +3967,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="11" t="s">
         <v>255</v>
       </c>
@@ -3975,7 +3977,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="11" t="s">
         <v>256</v>
       </c>
@@ -3985,7 +3987,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="8" t="s">
         <v>257</v>
       </c>
@@ -3997,7 +3999,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="11" t="s">
         <v>258</v>
       </c>
@@ -4007,7 +4009,7 @@
       <c r="E197" s="6"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="11" t="s">
         <v>259</v>
       </c>
@@ -4017,7 +4019,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="11" t="s">
         <v>260</v>
       </c>
@@ -4027,7 +4029,7 @@
       <c r="E199" s="6"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="8" t="s">
         <v>261</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="11" t="s">
         <v>262</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="11" t="s">
         <v>265</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="11" t="s">
         <v>267</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="11" t="s">
         <v>269</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11" t="s">
         <v>271</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="11" t="s">
         <v>273</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="11" t="s">
         <v>275</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="11" t="s">
         <v>277</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="11" t="s">
         <v>280</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="11" t="s">
         <v>282</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="11" t="s">
         <v>285</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="11" t="s">
         <v>288</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="11" t="s">
         <v>291</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="11" t="s">
         <v>294</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="11" t="s">
         <v>297</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="11" t="s">
         <v>300</v>
       </c>
@@ -4361,7 +4363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="11" t="s">
         <v>303</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="11" t="s">
         <v>306</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="11" t="s">
         <v>309</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="11" t="s">
         <v>312</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="11" t="s">
         <v>315</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="11" t="s">
         <v>318</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="11" t="s">
         <v>321</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="11" t="s">
         <v>324</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="11" t="s">
         <v>327</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="11" t="s">
         <v>329</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="11" t="s">
         <v>331</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="11" t="s">
         <v>333</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="11" t="s">
         <v>335</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="11" t="s">
         <v>337</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="11" t="s">
         <v>340</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="11" t="s">
         <v>343</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="11" t="s">
         <v>346</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="11" t="s">
         <v>349</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="11" t="s">
         <v>352</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="11" t="s">
         <v>355</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="11" t="s">
         <v>358</v>
       </c>
@@ -4771,7 +4773,7 @@
       <c r="E237" s="6"/>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="11" t="s">
         <v>359</v>
       </c>
@@ -4781,7 +4783,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="11" t="s">
         <v>360</v>
       </c>
@@ -4791,7 +4793,7 @@
       <c r="E239" s="6"/>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="11" t="s">
         <v>361</v>
       </c>
@@ -4801,7 +4803,7 @@
       <c r="E240" s="6"/>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="11" t="s">
         <v>362</v>
       </c>
@@ -4811,7 +4813,7 @@
       <c r="E241" s="6"/>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="11" t="s">
         <v>363</v>
       </c>
@@ -4821,7 +4823,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="11" t="s">
         <v>364</v>
       </c>
@@ -4831,7 +4833,7 @@
       <c r="E243" s="6"/>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A244" s="11" t="s">
         <v>365</v>
       </c>
@@ -4841,7 +4843,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
         <v>366</v>
       </c>
@@ -4851,7 +4853,7 @@
       <c r="E245" s="6"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="11" t="s">
         <v>367</v>
       </c>
@@ -4861,7 +4863,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="11" t="s">
         <v>368</v>
       </c>
@@ -4871,7 +4873,7 @@
       <c r="E247" s="6"/>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="11" t="s">
         <v>369</v>
       </c>
@@ -4881,7 +4883,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -4889,7 +4891,7 @@
       <c r="E249" s="6"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
         <v>414</v>
       </c>
@@ -4899,7 +4901,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="11" t="s">
         <v>370</v>
       </c>
@@ -4913,7 +4915,7 @@
       <c r="E251" s="6"/>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="11" t="s">
         <v>372</v>
       </c>
@@ -4927,7 +4929,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="11" t="s">
         <v>373</v>
       </c>
@@ -4941,7 +4943,7 @@
       <c r="E253" s="6"/>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="11" t="s">
         <v>374</v>
       </c>
@@ -4955,7 +4957,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="11" t="s">
         <v>375</v>
       </c>
@@ -4969,7 +4971,7 @@
       <c r="E255" s="6"/>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="11" t="s">
         <v>376</v>
       </c>
@@ -4983,7 +4985,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="11" t="s">
         <v>377</v>
       </c>
@@ -4997,7 +4999,7 @@
       <c r="E257" s="6"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="11" t="s">
         <v>378</v>
       </c>
@@ -5011,7 +5013,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="11" t="s">
         <v>379</v>
       </c>
@@ -5025,7 +5027,7 @@
       <c r="E259" s="6"/>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="11" t="s">
         <v>380</v>
       </c>
@@ -5039,7 +5041,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="11" t="s">
         <v>381</v>
       </c>
@@ -5053,7 +5055,7 @@
       <c r="E261" s="6"/>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="11" t="s">
         <v>382</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="11" t="s">
         <v>383</v>
       </c>
@@ -5081,7 +5083,7 @@
       <c r="E263" s="6"/>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="11" t="s">
         <v>384</v>
       </c>
@@ -5095,7 +5097,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="11" t="s">
         <v>385</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="E265" s="6"/>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>401</v>
       </c>
@@ -5120,82 +5122,90 @@
         <v>401</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C267" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A271" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A272" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
